--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,41 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Midea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>13</t>
     </r>
     <r>
@@ -322,39 +357,130 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> SJ235I00JC tmall 4499</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> J10 WQP12-W7635R-CN-R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前一分钟付款返</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万京豆！到手价相当于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   WQP12-W5301B -CN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到手价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  RX600 4999  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家用洗碗机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L3 https://item.jd.com/100006580628.html#crumb-wrap 3999
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4499 SJ235W00JC 13 JD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1 https://product.suning.com/0070207109/000000010659505071.html#?src=item_000000010659505071_recwhtjyh_1-1_p_0070207109_000000010659505071_rec_6-41_0_A     3599</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,41 +627,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美的（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Midea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>13</t>
     </r>
     <r>
@@ -555,124 +646,37 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> J10 WQP12-W7635R-CN-R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前一分钟付款返</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万京豆！到手价相当于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2399</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   WQP12-W5301B -CN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到手价</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  RX600 4999  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家用洗碗机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> L3 https://item.jd.com/100006580628.html#crumb-wrap 3999
+      <t xml:space="preserve"> SJ235I00JC tmall 4499</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4499 SJ235W00JC 13 JD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1175,23 +1179,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,606 @@
   </si>
   <si>
     <t>卡丽  3599 扶手1.7   京东3198-300=2898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/14611076189.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/7126992.html 1039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://product.suning.com/0070897644/11087522831.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太(FOTILE)油烟机灶具套装抽油烟机燃气灶两件套20立方EMD20T+HT8BE厨电欧式吸油烟机烟灶套餐天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100006918762.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方太（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOTILE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMD22T </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油烟机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烟灶套装</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽油烟机家用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧式油烟机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥手智控</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆款云魔方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HT8BE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011224256.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/100003138413.html</t>
+  </si>
+  <si>
+    <t> EMC7+HT8BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC5 +HT8BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC2+HT8BE</t>
+  </si>
+  <si>
+    <t>https://product.suning.com/0000000000/11053970969.html</t>
+  </si>
+  <si>
+    <t>EMC2+HC8BE</t>
+  </si>
+  <si>
+    <t>https://product.suning.com/0000000000/11525276673.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Midea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> J10 WQP12-W7635R-CN-R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前一分钟付款返</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万京豆！到手价相当于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   WQP12-W5301B -CN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到手价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  RX600 4999  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1 https://product.suning.com/0070207109/000000010659505071.html#?src=item_000000010659505071_recwhtjyh_1-1_p_0070207109_000000010659505071_rec_6-41_0_A     3599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2999.00 https://item.jd.com/8632831.html    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式家用洗碗机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>X4
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> https://item.jd.com/100000826364.html   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式家用洗碗机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">K2  2998
+60*60
+https://item.jd.com/4421135.html   4799 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西门子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SC73M612TI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家用洗碗机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L3 https://item.jd.com/100006580628.html#crumb-wrap 3999
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SJ235I00JC tmall 4499</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4499 SJ235W00JC 13 JD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,607 +678,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/14611076189.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tmall Rx20 3499  RX30 3599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/7126992.html 1039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://product.suning.com/0070897644/11087522831.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方太(FOTILE)油烟机灶具套装抽油烟机燃气灶两件套20立方EMD20T+HT8BE厨电欧式吸油烟机烟灶套餐天然气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100006918762.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方太（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FOTILE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> EMD22T </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>油烟机</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>烟灶套装</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽油烟机家用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欧式油烟机</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挥手智控</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爆款云魔方</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> HT8BE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011224256.html#crumb-wrap</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/100003138413.html</t>
-  </si>
-  <si>
-    <t> EMC7+HT8BE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMC5 +HT8BE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMC2+HT8BE</t>
-  </si>
-  <si>
-    <t>https://product.suning.com/0000000000/11053970969.html</t>
-  </si>
-  <si>
-    <t>EMC2+HC8BE</t>
-  </si>
-  <si>
-    <t>https://product.suning.com/0000000000/11525276673.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美的（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Midea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> J10 WQP12-W7635R-CN-R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前一分钟付款返</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万京豆！到手价相当于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2399</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   WQP12-W5301B -CN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到手价</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>3999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  RX600 4999  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家用洗碗机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> L3 https://item.jd.com/100006580628.html#crumb-wrap 3999
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1 https://product.suning.com/0070207109/000000010659505071.html#?src=item_000000010659505071_recwhtjyh_1-1_p_0070207109_000000010659505071_rec_6-41_0_A     3599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2999.00 https://item.jd.com/8632831.html    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式家用洗碗机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>X4
-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> https://item.jd.com/100000826364.html   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式家用洗碗机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">K2  2998
-60*60
-https://item.jd.com/4421135.html   4799 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西门子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SC73M612TI</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SJ235I00JC tmall 4499</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4499 SJ235W00JC 13 JD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>BS5051W  3999
+https://item.jd.com/100010985612.html
+https://item.jd.com/100000259778.html
+3899 58L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tmall Rx20 3499  RX30 3599
+https://product.suning.com/0000000000/11645885437.html#?safp=d488778a.13701.productWrap.3&amp;safc=prd.0.0&amp;safpn=10007.337506&amp;ch=cu 3499</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1135,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1161,12 +1169,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1174,29 +1185,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1220,23 +1231,23 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>4199</v>
@@ -1244,10 +1255,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>4299</v>
@@ -1255,10 +1266,10 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <v>3699</v>
@@ -1266,10 +1277,10 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6">
         <v>3999</v>
@@ -1277,10 +1288,10 @@
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8">
         <v>3799</v>
@@ -1288,10 +1299,10 @@
     </row>
     <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>4199</v>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,12 +681,76 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>欧琳（OULIN）AC860N 厨房304不锈钢洗菜盆洗碗池套餐加厚 易清洁双槽 抽拉式龙头 860*470 搭配L002抽拉龙头</t>
+  </si>
+  <si>
+    <t>https://product.suning.com/0070581839/10877555174.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://product.suning.com/0000000000/11645885437.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://product.suning.com/0000000000/11824942422.html</t>
+  </si>
+  <si>
+    <t>BS5055W Q5嵌入式</t>
+  </si>
+  <si>
+    <t>RX20 3199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://product.suning.com/0070068550/11066138933.html</t>
+  </si>
+  <si>
+    <t>方太EMC3+TH31B 19立方欧式抽油烟机灶具套装家用烟灶套餐 厨房燃气灶两件套 触控式C2 C5 家用脱排一键瞬吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC5 油烟机 烟灶套餐 欧式立体环吸吸油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年质保</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/29396107478.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/28505528340.html</t>
+  </si>
+  <si>
+    <t>ARROW） 浴缸花洒</t>
+  </si>
+  <si>
+    <t>等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +831,47 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -794,7 +899,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +926,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,7 +964,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -912,7 +1038,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -947,7 +1072,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1123,14 +1247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.875" bestFit="1" customWidth="1"/>
@@ -1138,22 +1262,22 @@
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1169,12 +1293,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3699</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1188,139 +1327,218 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:6" ht="18">
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>4199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="2:7" ht="15.75">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>4299</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:7" ht="15.75">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>3699</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:7" ht="15.75">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>3999</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="2:7" ht="18">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>3799</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="2:7" ht="18">
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="36">
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="22.5">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3699</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>3699</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75">
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" location="crumb-wrap"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5" location="crumb-wrap" display="https://item.jd.com/100011224256.html - crumb-wrap"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId1" location="crumb-wrap"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5" location="crumb-wrap" display="https://item.jd.com/100011224256.html - crumb-wrap"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="C20" r:id="rId7"/>
+    <hyperlink ref="C21" r:id="rId8"/>
+    <hyperlink ref="C24" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B25" r:id="rId12"/>
+    <hyperlink ref="B26" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B31" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,12 +1546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +743,52 @@
   </si>
   <si>
     <t>等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天鹅洗烘套装 10公斤烘干机干衣机+水魔方10公斤滚筒洗衣机TG100VT86WMAD5+TH100VTH35</t>
+  </si>
+  <si>
+    <t>https://product.suning.com/0071065783/945089611.html</t>
+  </si>
+  <si>
+    <t>装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调地热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴缸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡水条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装小蜜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1506,6 +1552,17 @@
       </c>
       <c r="C31" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18">
+      <c r="B34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>6999</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1526,20 +1583,115 @@
     <hyperlink ref="B26" r:id="rId13"/>
     <hyperlink ref="B30" r:id="rId14"/>
     <hyperlink ref="B31" r:id="rId15"/>
+    <hyperlink ref="D34" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12">
+        <f>SUM(B1:B11)</f>
+        <v>243279</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,10 @@
   </si>
   <si>
     <t>装小蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1592,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1679,16 +1683,24 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2900</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <f>SUM(B1:B11)</f>
-        <v>243279</v>
+    <row r="13" spans="1:2">
+      <c r="B13">
+        <f>SUM(B1:B12)</f>
+        <v>245279</v>
       </c>
     </row>
   </sheetData>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,101 @@
   </si>
   <si>
     <t>燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘干机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卧床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台洗衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100003935292.html</t>
+  </si>
+  <si>
+    <t>Qe  https://item.jd.com/8924425.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶Qe6  https://item.jd.com/100007520546.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1567,6 +1662,30 @@
       </c>
       <c r="D34" s="4" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>3999</v>
       </c>
     </row>
   </sheetData>
@@ -1588,18 +1707,19 @@
     <hyperlink ref="B30" r:id="rId14"/>
     <hyperlink ref="B31" r:id="rId15"/>
     <hyperlink ref="D34" r:id="rId16"/>
+    <hyperlink ref="B40" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1618,89 +1738,229 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
       <c r="B3">
-        <v>8300</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>51000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>2079</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13">
-        <f>SUM(B1:B12)</f>
-        <v>245279</v>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>3000</v>
+      </c>
+      <c r="C20">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40">
+        <f>SUM(B1:B39)</f>
+        <v>303454</v>
       </c>
     </row>
   </sheetData>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1867,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1875,7 +1875,7 @@
         <v>71</v>
       </c>
       <c r="B20">
-        <v>3000</v>
+        <v>19258</v>
       </c>
       <c r="C20">
         <v>-200</v>
@@ -1894,7 +1894,7 @@
         <v>74</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1960,7 +1960,7 @@
     <row r="40" spans="1:2">
       <c r="B40">
         <f>SUM(B1:B39)</f>
-        <v>303454</v>
+        <v>322912</v>
       </c>
     </row>
   </sheetData>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7380" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>入户前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -890,12 +890,32 @@
     <t>马桶Qe6  https://item.jd.com/100007520546.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置净水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,7 +1129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1183,6 +1203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1217,6 +1238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1392,14 +1414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.875" bestFit="1" customWidth="1"/>
@@ -1407,22 +1429,22 @@
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54">
+    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1497,12 +1519,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75">
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1573,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75">
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1584,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75">
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18">
+    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18">
+    <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="36">
+    <row r="24" spans="2:7" ht="36" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="22.5">
+    <row r="25" spans="2:7" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
@@ -1645,7 +1667,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15.75">
+    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
@@ -1653,7 +1675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="18">
+    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
         <v>53</v>
       </c>
@@ -1664,7 +1686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>89</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>88</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>87</v>
       </c>
@@ -1715,16 +1737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1732,17 +1754,17 @@
         <v>87600</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>87600</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>43800</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1766,7 +1788,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1790,7 +1812,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1798,7 +1820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1830,7 +1852,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1838,7 +1860,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1868,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1862,7 +1884,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1870,18 +1892,15 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20">
-        <v>19258</v>
-      </c>
-      <c r="C20">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1889,93 +1908,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>74</v>
       </c>
       <c r="B22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40">
-        <f>SUM(B1:B39)</f>
-        <v>322912</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <f>SUM(B1:B41)</f>
+        <v>326336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>入户前置</t>
   </si>
@@ -786,12 +786,27 @@
     <t>烘干机</t>
   </si>
   <si>
+    <t>净水器</t>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+  </si>
+  <si>
     <t>沙发</t>
   </si>
   <si>
     <t>餐桌</t>
   </si>
   <si>
+    <t>床头柜</t>
+  </si>
+  <si>
+    <t>梳妆台</t>
+  </si>
+  <si>
     <t>主卧床</t>
   </si>
   <si>
@@ -799,6 +814,9 @@
   </si>
   <si>
     <t>儿童床</t>
+  </si>
+  <si>
+    <t>书桌</t>
   </si>
   <si>
     <t>窗帘</t>
@@ -821,12 +839,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,13 +895,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF666666"/>
@@ -920,8 +931,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,9 +994,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,73 +1052,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1032,34 +1060,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,187 +1089,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,43 +1285,34 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1338,6 +1333,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1353,26 +1366,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,149 +1385,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1555,22 +1559,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1926,7 +1930,7 @@
   <sheetPr/>
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -2254,10 +2258,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2280,264 +2284,376 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
+    <row r="4" spans="2:2">
       <c r="B4">
-        <v>8300</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>51000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>2079</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>3800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>2900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>2698</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>2899</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B18">
-        <v>1409</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>3969</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>2200</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>19000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>2800</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>81</v>
+      <c r="B28">
+        <v>2600</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>8999</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B36">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>90</v>
+      <c r="B37">
+        <v>3270</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>91</v>
       </c>
-      <c r="B38">
+      <c r="B43">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
         <v>550</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51">
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43">
-        <f>SUM(B1:B42)</f>
-        <v>330136</v>
+    <row r="54" spans="2:2">
+      <c r="B54">
+        <f>SUM(B1:B53)</f>
+        <v>393347</v>
       </c>
     </row>
   </sheetData>

--- a/装修1.xlsx
+++ b/装修1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>入户前置</t>
   </si>
@@ -804,12 +804,33 @@
     <t>床头柜</t>
   </si>
   <si>
+    <t>宜家椅子</t>
+  </si>
+  <si>
     <t>梳妆台</t>
   </si>
   <si>
     <t>主卧床</t>
   </si>
   <si>
+    <t>床垫</t>
+  </si>
+  <si>
+    <t>飘窗垫</t>
+  </si>
+  <si>
+    <t>儿童床垫</t>
+  </si>
+  <si>
+    <t>按摩椅</t>
+  </si>
+  <si>
+    <t>被子</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
     <t>客卧床</t>
   </si>
   <si>
@@ -817,6 +838,30 @@
   </si>
   <si>
     <t>书桌</t>
+  </si>
+  <si>
+    <t>锅盖</t>
+  </si>
+  <si>
+    <t>拖把</t>
+  </si>
+  <si>
+    <t>吸甲醛</t>
+  </si>
+  <si>
+    <t>沙发套</t>
+  </si>
+  <si>
+    <t>小凳子</t>
+  </si>
+  <si>
+    <t>锅铲</t>
+  </si>
+  <si>
+    <t>保温壶</t>
+  </si>
+  <si>
+    <t>厨房用品</t>
   </si>
   <si>
     <t>窗帘</t>
@@ -931,6 +976,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -939,6 +1058,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -955,9 +1082,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,87 +1104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1060,13 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="宋体"/>
@@ -1089,187 +1134,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,15 +1325,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1303,50 +1339,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,6 +1359,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1380,6 +1387,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1388,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1400,16 +1445,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,115 +1464,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2258,13 +2303,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2481,9 +2526,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>80</v>
+      </c>
+      <c r="B29">
+        <v>3433</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -2496,7 +2544,7 @@
         <v>82</v>
       </c>
       <c r="B31">
-        <v>8999</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -2549,111 +2597,218 @@
         <v>89</v>
       </c>
       <c r="B38">
-        <v>493</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
       <c r="B40">
-        <v>518</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41">
-        <v>1808</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42">
-        <v>2342</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43">
-        <v>5292</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45">
-        <v>4055</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46">
-        <v>739</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47">
-        <v>6000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48">
-        <v>2500</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49">
-        <v>550</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>999</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B51">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53">
+        <v>739</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54">
+        <f>SUM(C54:R54)</f>
+        <v>628</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>92</v>
+      </c>
+      <c r="E54">
+        <v>150</v>
+      </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <v>68</v>
+      </c>
+      <c r="H54">
+        <v>120</v>
+      </c>
+      <c r="I54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59">
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54">
-        <f>SUM(B1:B53)</f>
-        <v>393347</v>
+    <row r="62" spans="2:2">
+      <c r="B62">
+        <f>SUM(B1:B61)</f>
+        <v>404216</v>
       </c>
     </row>
   </sheetData>
